--- a/flow_pref/predicted_flow_quantiles_20200421.xlsx
+++ b/flow_pref/predicted_flow_quantiles_20200421.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awlostowski\Google Drive\aw-poudre-2020\flow_pref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D7A10E-C69B-436C-B916-710C85113676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D56DFD19-0112-4546-B1AE-3E3A987FD4DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14325" yWindow="885" windowWidth="14415" windowHeight="14715"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="predicted_flow_quantiles" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>HOME MORAINE TO INDIAN MEADOWS BRIDGE</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>very high</t>
+  </si>
+  <si>
+    <t>AW River Reach Name</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -515,6 +518,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -560,8 +583,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -574,10 +600,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -935,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,16 +985,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="6">
         <v>0.1</v>
       </c>
@@ -980,222 +1012,227 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>18.611153756287798</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>53.4675095414974</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>126.338215624751</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>403.96545555598101</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>972.36866621656804</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>57.465184016866502</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>91.459796742234602</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>203.46420930386299</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>596.15406353640697</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>1406.99305978761</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>52.987922122827896</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>90.685247694258294</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>201.30807073081499</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>585.85930835400097</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>1367.9122925307299</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>56.955941678662199</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>91.446516141687894</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>203.80390773010799</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>592.024865320451</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>1393.62436967897</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>48.441295804784403</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>86.710226565108997</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>197.308625508706</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>576.657531331531</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>1325.8628785416699</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>25.057709912235499</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>56.0025268565795</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>134.819583671971</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>430.09770851677501</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>1087.0726330661801</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>47.281192096032498</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>86.136260380562007</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>195.69052935014301</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>561.44742744103803</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>1285.5788786985499</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>22.0213066755176</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>38.167341808216399</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>88.725214234263007</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>301.02858927259899</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>577.42697167339702</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>83.773555041308796</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>135.73650482849001</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>270.26257704212901</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>773.99809642058904</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>1565.66012936988</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>5.9980433167615201</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>17.6633157687642</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>44.120714467080603</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>202.76741028514101</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>308.42404179343202</v>
       </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
